--- a/git2.xlsx
+++ b/git2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucku\Downloads\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E1613-A7E0-4717-8C3C-7F3D9E33B6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826C5C2-1644-4694-AC28-CFB315501C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{452FAC23-613F-4086-A302-94A01EF5C55B}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
